--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.177331804964047</v>
+        <v>0.3669776666666666</v>
       </c>
       <c r="H2">
-        <v>0.177331804964047</v>
+        <v>1.100933</v>
       </c>
       <c r="I2">
-        <v>0.008966000876637474</v>
+        <v>0.0181959334720815</v>
       </c>
       <c r="J2">
-        <v>0.008966000876637474</v>
+        <v>0.0181959334720815</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>12.7309074321928</v>
+        <v>0.07629866666666667</v>
       </c>
       <c r="N2">
-        <v>12.7309074321928</v>
+        <v>0.228896</v>
       </c>
       <c r="O2">
-        <v>0.7018084019515503</v>
+        <v>0.004108848954870246</v>
       </c>
       <c r="P2">
-        <v>0.7018084019515503</v>
+        <v>0.004108848954870246</v>
       </c>
       <c r="Q2">
-        <v>2.25759479378095</v>
+        <v>0.02799990666311111</v>
       </c>
       <c r="R2">
-        <v>2.25759479378095</v>
+        <v>0.251999159968</v>
       </c>
       <c r="S2">
-        <v>0.006292414747129145</v>
+        <v>7.476434222965059E-05</v>
       </c>
       <c r="T2">
-        <v>0.006292414747129145</v>
+        <v>7.476434222965059E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.177331804964047</v>
+        <v>0.3669776666666666</v>
       </c>
       <c r="H3">
-        <v>0.177331804964047</v>
+        <v>1.100933</v>
       </c>
       <c r="I3">
-        <v>0.008966000876637474</v>
+        <v>0.0181959334720815</v>
       </c>
       <c r="J3">
-        <v>0.008966000876637474</v>
+        <v>0.0181959334720815</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.40923936113625</v>
+        <v>12.99468133333333</v>
       </c>
       <c r="N3">
-        <v>5.40923936113625</v>
+        <v>38.984044</v>
       </c>
       <c r="O3">
-        <v>0.2981915980484497</v>
+        <v>0.6997918200668237</v>
       </c>
       <c r="P3">
-        <v>0.2981915980484497</v>
+        <v>0.6997918200668237</v>
       </c>
       <c r="Q3">
-        <v>0.9592301793928597</v>
+        <v>4.768757834783555</v>
       </c>
       <c r="R3">
-        <v>0.9592301793928597</v>
+        <v>42.918820513052</v>
       </c>
       <c r="S3">
-        <v>0.002673586129508329</v>
+        <v>0.01273336540224275</v>
       </c>
       <c r="T3">
-        <v>0.002673586129508329</v>
+        <v>0.01273336540224275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.0837482840364</v>
+        <v>0.3669776666666666</v>
       </c>
       <c r="H4">
-        <v>17.0837482840364</v>
+        <v>1.100933</v>
       </c>
       <c r="I4">
-        <v>0.8637644111386519</v>
+        <v>0.0181959334720815</v>
       </c>
       <c r="J4">
-        <v>0.8637644111386519</v>
+        <v>0.0181959334720815</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.7309074321928</v>
+        <v>5.498373000000001</v>
       </c>
       <c r="N4">
-        <v>12.7309074321928</v>
+        <v>16.495119</v>
       </c>
       <c r="O4">
-        <v>0.7018084019515503</v>
+        <v>0.2960993309783061</v>
       </c>
       <c r="P4">
-        <v>0.7018084019515503</v>
+        <v>0.2960993309783061</v>
       </c>
       <c r="Q4">
-        <v>217.49161799895</v>
+        <v>2.017780094003</v>
       </c>
       <c r="R4">
-        <v>217.49161799895</v>
+        <v>18.160020846027</v>
       </c>
       <c r="S4">
-        <v>0.6061971210438392</v>
+        <v>0.005387803727609097</v>
       </c>
       <c r="T4">
-        <v>0.6061971210438392</v>
+        <v>0.005387803727609097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0837482840364</v>
+        <v>17.23456</v>
       </c>
       <c r="H5">
-        <v>17.0837482840364</v>
+        <v>51.70368000000001</v>
       </c>
       <c r="I5">
-        <v>0.8637644111386519</v>
+        <v>0.8545449373774706</v>
       </c>
       <c r="J5">
-        <v>0.8637644111386519</v>
+        <v>0.8545449373774706</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.40923936113625</v>
+        <v>0.07629866666666667</v>
       </c>
       <c r="N5">
-        <v>5.40923936113625</v>
+        <v>0.228896</v>
       </c>
       <c r="O5">
-        <v>0.2981915980484497</v>
+        <v>0.004108848954870246</v>
       </c>
       <c r="P5">
-        <v>0.2981915980484497</v>
+        <v>0.004108848954870246</v>
       </c>
       <c r="Q5">
-        <v>92.41008365375356</v>
+        <v>1.314973948586667</v>
       </c>
       <c r="R5">
-        <v>92.41008365375356</v>
+        <v>11.83476553728</v>
       </c>
       <c r="S5">
-        <v>0.2575672900948127</v>
+        <v>0.00351119607283308</v>
       </c>
       <c r="T5">
-        <v>0.2575672900948127</v>
+        <v>0.00351119607283308</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.51716970195338</v>
+        <v>17.23456</v>
       </c>
       <c r="H6">
-        <v>2.51716970195338</v>
+        <v>51.70368000000001</v>
       </c>
       <c r="I6">
-        <v>0.1272695879847105</v>
+        <v>0.8545449373774706</v>
       </c>
       <c r="J6">
-        <v>0.1272695879847105</v>
+        <v>0.8545449373774706</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.7309074321928</v>
+        <v>12.99468133333333</v>
       </c>
       <c r="N6">
-        <v>12.7309074321928</v>
+        <v>38.984044</v>
       </c>
       <c r="O6">
-        <v>0.7018084019515503</v>
+        <v>0.6997918200668237</v>
       </c>
       <c r="P6">
-        <v>0.7018084019515503</v>
+        <v>0.6997918200668237</v>
       </c>
       <c r="Q6">
-        <v>32.04585446668882</v>
+        <v>223.9576151202133</v>
       </c>
       <c r="R6">
-        <v>32.04585446668882</v>
+        <v>2015.61853608192</v>
       </c>
       <c r="S6">
-        <v>0.08931886616058188</v>
+        <v>0.5980035570562701</v>
       </c>
       <c r="T6">
-        <v>0.08931886616058188</v>
+        <v>0.5980035570562701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.51716970195338</v>
+        <v>17.23456</v>
       </c>
       <c r="H7">
-        <v>2.51716970195338</v>
+        <v>51.70368000000001</v>
       </c>
       <c r="I7">
-        <v>0.1272695879847105</v>
+        <v>0.8545449373774706</v>
       </c>
       <c r="J7">
-        <v>0.1272695879847105</v>
+        <v>0.8545449373774706</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.40923936113625</v>
+        <v>5.498373000000001</v>
       </c>
       <c r="N7">
-        <v>5.40923936113625</v>
+        <v>16.495119</v>
       </c>
       <c r="O7">
-        <v>0.2981915980484497</v>
+        <v>0.2960993309783061</v>
       </c>
       <c r="P7">
-        <v>0.2981915980484497</v>
+        <v>0.2960993309783061</v>
       </c>
       <c r="Q7">
-        <v>13.61597343046583</v>
+        <v>94.76203937088002</v>
       </c>
       <c r="R7">
-        <v>13.61597343046583</v>
+        <v>852.8583543379202</v>
       </c>
       <c r="S7">
-        <v>0.03795072182412858</v>
+        <v>0.2530301842483675</v>
       </c>
       <c r="T7">
-        <v>0.03795072182412858</v>
+        <v>0.2530301842483675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.566576666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.69973</v>
+      </c>
+      <c r="I8">
+        <v>0.1272591291504479</v>
+      </c>
+      <c r="J8">
+        <v>0.1272591291504479</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.07629866666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.228896</v>
+      </c>
+      <c r="O8">
+        <v>0.004108848954870246</v>
+      </c>
+      <c r="P8">
+        <v>0.004108848954870246</v>
+      </c>
+      <c r="Q8">
+        <v>0.1958263775644445</v>
+      </c>
+      <c r="R8">
+        <v>1.76243739808</v>
+      </c>
+      <c r="S8">
+        <v>0.0005228885398075156</v>
+      </c>
+      <c r="T8">
+        <v>0.0005228885398075155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.566576666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.69973</v>
+      </c>
+      <c r="I9">
+        <v>0.1272591291504479</v>
+      </c>
+      <c r="J9">
+        <v>0.1272591291504479</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.99468133333333</v>
+      </c>
+      <c r="N9">
+        <v>38.984044</v>
+      </c>
+      <c r="O9">
+        <v>0.6997918200668237</v>
+      </c>
+      <c r="P9">
+        <v>0.6997918200668237</v>
+      </c>
+      <c r="Q9">
+        <v>33.35184590090222</v>
+      </c>
+      <c r="R9">
+        <v>300.16661310812</v>
+      </c>
+      <c r="S9">
+        <v>0.08905489760831094</v>
+      </c>
+      <c r="T9">
+        <v>0.08905489760831092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.566576666666667</v>
+      </c>
+      <c r="H10">
+        <v>7.69973</v>
+      </c>
+      <c r="I10">
+        <v>0.1272591291504479</v>
+      </c>
+      <c r="J10">
+        <v>0.1272591291504479</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.498373000000001</v>
+      </c>
+      <c r="N10">
+        <v>16.495119</v>
+      </c>
+      <c r="O10">
+        <v>0.2960993309783061</v>
+      </c>
+      <c r="P10">
+        <v>0.2960993309783061</v>
+      </c>
+      <c r="Q10">
+        <v>14.11199584643</v>
+      </c>
+      <c r="R10">
+        <v>127.00796261787</v>
+      </c>
+      <c r="S10">
+        <v>0.03768134300232948</v>
+      </c>
+      <c r="T10">
+        <v>0.03768134300232948</v>
       </c>
     </row>
   </sheetData>
